--- a/biology/Botanique/Bunium/Bunium.xlsx
+++ b/biology/Botanique/Bunium/Bunium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bunium est un genre de plantes de la famille des Apiacées comprenant 48 espèces. Il est présent surtout en Asie tempéré, en Europe et en Afrique du Nord. Les tubercules de certaines espèces sont comestibles[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bunium est un genre de plantes de la famille des Apiacées comprenant 48 espèces. Il est présent surtout en Asie tempéré, en Europe et en Afrique du Nord. Les tubercules de certaines espèces sont comestibles. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (5 juil. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (5 juil. 2012) :
 Bunium afghanicum
 Bunium agrarium
 Bunium alaicum
